--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B42790-3E60-4B40-846A-A1B247FDAB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD960C7-DC85-9344-BF64-B55D492A2478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="36120" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -960,8 +960,8 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q12">
         <v>0</v>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD960C7-DC85-9344-BF64-B55D492A2478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACDC61-D326-9C47-9A83-8BBF645B4022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="147">
   <si>
     <t>University</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>zotero - "week and half later"</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>Hampden-Sydney College</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>University of Nebraska-Lincoln</t>
   </si>
 </sst>
 </file>
@@ -957,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1613,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3">
-        <v>42064</v>
+        <v>42083</v>
       </c>
       <c r="C19" s="3">
         <v>42133</v>
@@ -1822,7 +1834,7 @@
         <v>43778</v>
       </c>
       <c r="E26" s="3">
-        <v>43952</v>
+        <v>43847</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2457,6 +2469,26 @@
       </c>
       <c r="S45" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACDC61-D326-9C47-9A83-8BBF645B4022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD15742-CC6D-884E-A84C-496E3999588D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="36500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="148">
   <si>
     <t>University</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t>University of Nevada-Reno</t>
   </si>
 </sst>
 </file>
@@ -969,11 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2091,7 @@
         <v>42856</v>
       </c>
       <c r="C34" s="3">
-        <v>43057</v>
+        <v>43067</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2489,6 +2492,11 @@
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD15742-CC6D-884E-A84C-496E3999588D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE88D0-FA02-A841-86F7-6105BF3229F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="159">
   <si>
     <t>University</t>
   </si>
@@ -516,9 +516,6 @@
     <t>email/document</t>
   </si>
   <si>
-    <t>zotero - "week and half later"</t>
-  </si>
-  <si>
     <t>Texas Christian University</t>
   </si>
   <si>
@@ -532,6 +529,42 @@
   </si>
   <si>
     <t>University of Nevada-Reno</t>
+  </si>
+  <si>
+    <t>SUNY at Albany</t>
+  </si>
+  <si>
+    <t>Texas Tech University</t>
+  </si>
+  <si>
+    <t>University of South Carolina-Columbia</t>
+  </si>
+  <si>
+    <t>Ferrum College</t>
+  </si>
+  <si>
+    <t>University of Louisiana at Lafayette</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University-College Station</t>
+  </si>
+  <si>
+    <t>University of California-Riverside</t>
+  </si>
+  <si>
+    <t>University of California-Santa Cruz</t>
+  </si>
+  <si>
+    <t>Delaware State University</t>
+  </si>
+  <si>
+    <t>University of California-Irvine</t>
+  </si>
+  <si>
+    <t>California State University-Fullerton</t>
   </si>
 </sst>
 </file>
@@ -541,7 +574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +640,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -635,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,6 +696,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -972,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C34" sqref="C34"/>
+      <selection pane="topRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,18 +1560,18 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
-        <v>43151</v>
+        <v>43349</v>
       </c>
       <c r="C16" s="3">
-        <v>43160</v>
+        <v>43481</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1540,27 +1580,27 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
-        <v>43349</v>
+        <v>43229</v>
       </c>
       <c r="C17" s="3">
-        <v>43481</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>43339</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17">
         <v>1</v>
       </c>
@@ -1568,32 +1608,32 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>43229</v>
+        <v>42083</v>
       </c>
       <c r="C18" s="3">
-        <v>43339</v>
+        <v>42133</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1602,24 +1642,24 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>42083</v>
+        <v>42773</v>
       </c>
       <c r="C19" s="3">
-        <v>42133</v>
+        <v>42821</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1644,54 +1684,49 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
-        <v>42773</v>
+        <v>43055</v>
       </c>
       <c r="C20" s="3">
-        <v>42821</v>
+        <v>43138</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3">
-        <v>43055</v>
-      </c>
-      <c r="C21" s="3">
-        <v>43138</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="13">
+        <v>43741</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43763</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
         <v>1</v>
       </c>
       <c r="N21" t="s">
@@ -1705,23 +1740,28 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="13">
-        <v>43741</v>
-      </c>
-      <c r="C22" s="13">
-        <v>43763</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42773</v>
+      </c>
+      <c r="C22" s="3">
+        <v>42860</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1732,16 +1772,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
-        <v>42773</v>
+        <v>42787</v>
       </c>
       <c r="C23" s="3">
-        <v>42860</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>42839</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23">
         <v>1</v>
       </c>
@@ -1752,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1763,16 +1803,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
-        <v>42787</v>
-      </c>
-      <c r="C24" s="3">
-        <v>42839</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+        <v>42100</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42125</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24">
         <v>1</v>
       </c>
@@ -1783,133 +1823,133 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
-        <v>42100</v>
-      </c>
-      <c r="C25" s="4">
-        <v>42125</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>43168</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43377</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43778</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43847</v>
+      </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
         <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <v>41968</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" t="s">
+        <v>66</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43168</v>
-      </c>
-      <c r="C26" s="3">
-        <v>43377</v>
-      </c>
-      <c r="D26" s="3">
-        <v>43778</v>
-      </c>
-      <c r="E26" s="3">
-        <v>43847</v>
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="13">
+        <v>43786</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43808</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
         <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="13">
-        <v>41968</v>
-      </c>
       <c r="N26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43053</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43157</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>57</v>
       </c>
-      <c r="P26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="13">
-        <v>43786</v>
-      </c>
-      <c r="C27" s="13">
-        <v>43808</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>56</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
-        <v>43053</v>
+        <v>42690</v>
       </c>
       <c r="C28" s="3">
-        <v>43157</v>
+        <v>42754</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1918,64 +1958,64 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="13">
+        <v>43567</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43698</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>57</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3">
-        <v>42690</v>
-      </c>
-      <c r="C29" s="3">
-        <v>42754</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>62</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="13">
-        <v>43567</v>
-      </c>
-      <c r="C30" s="13">
-        <v>43698</v>
-      </c>
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42659</v>
+      </c>
+      <c r="C30" s="3">
+        <v>42669</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="N30" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -1986,27 +2026,33 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>42659</v>
-      </c>
-      <c r="C31" s="3">
-        <v>42669</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31">
+        <v>43108</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43164</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2017,55 +2063,49 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>43108</v>
-      </c>
-      <c r="C32" s="4">
-        <v>43164</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2">
+        <v>43081</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32">
         <v>0</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
-        <v>43081</v>
+        <v>42856</v>
       </c>
       <c r="C33" s="3">
-        <v>43172</v>
+        <v>43704</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2074,55 +2114,55 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
-        <v>42856</v>
+        <v>43171</v>
       </c>
       <c r="C34" s="3">
-        <v>43067</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>43177</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3">
-        <v>43171</v>
+        <v>43048</v>
       </c>
       <c r="C35" s="3">
-        <v>43177</v>
+        <v>43103</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2136,27 +2176,27 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3">
-        <v>43048</v>
-      </c>
-      <c r="C36" s="3">
-        <v>43103</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+        <v>43165</v>
+      </c>
+      <c r="C36" s="9">
+        <v>43172</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36">
         <v>0</v>
       </c>
@@ -2167,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2178,24 +2218,24 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3">
-        <v>43165</v>
-      </c>
-      <c r="C37" s="9">
-        <v>43172</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+        <v>43077</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43150</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="s">
         <v>59</v>
@@ -2204,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3">
-        <v>43077</v>
+        <v>43073</v>
       </c>
       <c r="C38" s="3">
-        <v>43150</v>
+        <v>43087</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="H38">
@@ -2229,28 +2269,28 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="C39" s="3">
-        <v>43087</v>
+        <v>43342</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>1</v>
       </c>
       <c r="H39">
@@ -2260,38 +2300,33 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3">
-        <v>43119</v>
-      </c>
-      <c r="C40" s="3">
-        <v>43342</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="12">
+        <v>43556</v>
+      </c>
+      <c r="C40" s="12">
+        <v>43698</v>
+      </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="N40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2301,14 +2336,14 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="12">
-        <v>43556</v>
-      </c>
-      <c r="C41" s="12">
-        <v>43698</v>
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C41" s="13">
+        <v>43557</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2327,23 +2362,28 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="13">
-        <v>43501</v>
-      </c>
-      <c r="C42" s="13">
-        <v>43557</v>
-      </c>
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41965</v>
+      </c>
+      <c r="C42" s="3">
+        <v>42011</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="N42" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -2354,56 +2394,66 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>41965</v>
+        <v>42681</v>
       </c>
       <c r="C43" s="3">
-        <v>42011</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+        <v>42744</v>
+      </c>
+      <c r="D43" s="3">
+        <v>43783</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43857</v>
+      </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="O43" t="s">
+        <v>57</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>42681</v>
+        <v>41956</v>
       </c>
       <c r="C44" s="3">
-        <v>42744</v>
+        <v>42036</v>
       </c>
       <c r="D44" s="3">
-        <v>43783</v>
+        <v>43145</v>
       </c>
       <c r="E44" s="3">
-        <v>43857</v>
+        <v>43313</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2411,76 +2461,40 @@
       <c r="I44">
         <v>1</v>
       </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="N44" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="S44" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3">
-        <v>41956</v>
-      </c>
-      <c r="C45" s="3">
-        <v>42036</v>
-      </c>
-      <c r="D45" s="3">
-        <v>43145</v>
-      </c>
-      <c r="E45" s="3">
-        <v>43313</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>57</v>
-      </c>
-      <c r="O45" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>140</v>
-      </c>
-      <c r="S45" t="s">
-        <v>139</v>
+      <c r="A45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2495,13 +2509,68 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="21" t="s">
         <v>147</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q45">
-    <sortCondition ref="A11:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q44">
+    <sortCondition ref="A11:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE88D0-FA02-A841-86F7-6105BF3229F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191058F6-8D45-6D43-9AB4-46A42411FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="159">
   <si>
     <t>University</t>
   </si>
@@ -1012,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A53" sqref="A53"/>
+      <selection pane="topRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,17 +2249,17 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="C38" s="3">
-        <v>43087</v>
+        <v>43342</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="H38">
@@ -2269,38 +2269,33 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3">
-        <v>43119</v>
-      </c>
-      <c r="C39" s="3">
-        <v>43342</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="12">
+        <v>43556</v>
+      </c>
+      <c r="C39" s="12">
+        <v>43698</v>
+      </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="N39" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2310,14 +2305,14 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="12">
-        <v>43556</v>
-      </c>
-      <c r="C40" s="12">
-        <v>43698</v>
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C40" s="13">
+        <v>43557</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2336,23 +2331,28 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="13">
-        <v>43501</v>
-      </c>
-      <c r="C41" s="13">
-        <v>43557</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>41965</v>
+      </c>
+      <c r="C41" s="3">
+        <v>42011</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="N41" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2363,56 +2363,66 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
-        <v>41965</v>
+        <v>42681</v>
       </c>
       <c r="C42" s="3">
-        <v>42011</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+        <v>42744</v>
+      </c>
+      <c r="D42" s="3">
+        <v>43783</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43857</v>
+      </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="O42" t="s">
+        <v>57</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
-        <v>42681</v>
+        <v>41956</v>
       </c>
       <c r="C43" s="3">
-        <v>42744</v>
+        <v>42036</v>
       </c>
       <c r="D43" s="3">
-        <v>43783</v>
+        <v>43145</v>
       </c>
       <c r="E43" s="3">
-        <v>43857</v>
+        <v>43313</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2420,157 +2430,116 @@
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="N43" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="S43" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="3">
-        <v>41956</v>
-      </c>
-      <c r="C44" s="3">
-        <v>42036</v>
-      </c>
-      <c r="D44" s="3">
-        <v>43145</v>
-      </c>
-      <c r="E44" s="3">
-        <v>43313</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O44" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>140</v>
-      </c>
-      <c r="S44" t="s">
-        <v>139</v>
+      <c r="A44" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>142</v>
+      <c r="A45" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>143</v>
+      <c r="A46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>146</v>
+      <c r="A49" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>149</v>
+      <c r="A52" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>150</v>
+      <c r="A53" s="21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q44">
-    <sortCondition ref="A11:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q43">
+    <sortCondition ref="A11:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191058F6-8D45-6D43-9AB4-46A42411FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18347064-F8DA-B943-8186-456FF669D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="160">
   <si>
     <t>University</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>California State University-Fullerton</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
   </si>
 </sst>
 </file>
@@ -1012,11 +1015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+      <selection pane="topRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2535,6 +2538,11 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18347064-F8DA-B943-8186-456FF669D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86DF5E-A95F-3A4B-A364-940C870FC21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="1980" yWindow="780" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="161">
   <si>
     <t>University</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>The University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>in_sample</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1031,7 @@
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1089,11 @@
       <c r="S1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1126,11 @@
       <c r="R2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1151,8 +1160,11 @@
       <c r="R3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,8 +1210,11 @@
       <c r="R4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1226,8 +1241,11 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1273,8 +1291,11 @@
       <c r="R6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,8 +1325,11 @@
       <c r="R7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,8 +1359,11 @@
       <c r="R8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1361,8 +1388,11 @@
       <c r="R9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1392,8 +1422,11 @@
       <c r="R10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,8 +1456,11 @@
       <c r="R11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1454,8 +1490,11 @@
       <c r="R12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1485,8 +1524,11 @@
       <c r="R13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1529,8 +1571,11 @@
       <c r="R14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1560,8 +1605,11 @@
       <c r="R15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1639,11 @@
       <c r="R16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1622,8 +1673,11 @@
       <c r="R17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1653,8 +1707,11 @@
       <c r="R18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1684,8 +1741,11 @@
       <c r="R19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1715,8 +1775,11 @@
       <c r="R20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1741,8 +1804,11 @@
       <c r="R21" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1772,8 +1838,11 @@
       <c r="R22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1803,8 +1872,11 @@
       <c r="R23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1834,8 +1906,11 @@
       <c r="R24" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1956,11 @@
       <c r="R25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1907,8 +1985,11 @@
       <c r="R26" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1938,8 +2019,11 @@
       <c r="R27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1969,8 +2053,11 @@
       <c r="R28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1995,8 +2082,11 @@
       <c r="R29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2026,8 +2116,11 @@
       <c r="R30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2063,8 +2156,11 @@
       <c r="R31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2094,8 +2190,11 @@
       <c r="R32" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,8 +2224,11 @@
       <c r="R33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2156,8 +2258,11 @@
       <c r="R34" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2187,8 +2292,11 @@
       <c r="R35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2218,8 +2326,11 @@
       <c r="R36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="R37" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2280,8 +2394,11 @@
       <c r="R38" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
@@ -2306,8 +2423,11 @@
       <c r="R39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2332,8 +2452,11 @@
       <c r="R40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2363,8 +2486,11 @@
       <c r="R41" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2404,8 +2530,11 @@
       <c r="R42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2454,95 +2583,158 @@
       <c r="S43" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>159</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <f>SUM(T2:T61)</f>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86DF5E-A95F-3A4B-A364-940C870FC21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924395AC-3D75-4A42-BCCB-471E3DE4831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="780" windowWidth="35840" windowHeight="21100" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="22400" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="220">
   <si>
     <t>University</t>
   </si>
@@ -572,6 +572,183 @@
   <si>
     <t>in_sample</t>
   </si>
+  <si>
+    <t>ori_9</t>
+  </si>
+  <si>
+    <t>AR0160500</t>
+  </si>
+  <si>
+    <t>IN0180500</t>
+  </si>
+  <si>
+    <t>SC0390600</t>
+  </si>
+  <si>
+    <t>SC0101700</t>
+  </si>
+  <si>
+    <t>NC0740900</t>
+  </si>
+  <si>
+    <t>VA0940400</t>
+  </si>
+  <si>
+    <t>FL0503700</t>
+  </si>
+  <si>
+    <t>FL0133100</t>
+  </si>
+  <si>
+    <t>FL0370600</t>
+  </si>
+  <si>
+    <t>IN0530200</t>
+  </si>
+  <si>
+    <t>LA0170400</t>
+  </si>
+  <si>
+    <t>WV0060400</t>
+  </si>
+  <si>
+    <t>NJ0135500</t>
+  </si>
+  <si>
+    <t>KY0180200</t>
+  </si>
+  <si>
+    <t>NC0921600</t>
+  </si>
+  <si>
+    <t>IL0162W00</t>
+  </si>
+  <si>
+    <t>OH0252700</t>
+  </si>
+  <si>
+    <t>OH0051000</t>
+  </si>
+  <si>
+    <t>NJ0123000</t>
+  </si>
+  <si>
+    <t>CA0371400</t>
+  </si>
+  <si>
+    <t>NY233US00</t>
+  </si>
+  <si>
+    <t>TX1050300</t>
+  </si>
+  <si>
+    <t>MA009TU00</t>
+  </si>
+  <si>
+    <t>NY214UB00</t>
+  </si>
+  <si>
+    <t>FL0481400</t>
+  </si>
+  <si>
+    <t>IA0520400</t>
+  </si>
+  <si>
+    <t>KS0230200</t>
+  </si>
+  <si>
+    <t>MO0100400</t>
+  </si>
+  <si>
+    <t>NM0010200</t>
+  </si>
+  <si>
+    <t>PA0021N00</t>
+  </si>
+  <si>
+    <t>TX2203300</t>
+  </si>
+  <si>
+    <t>VT0041100</t>
+  </si>
+  <si>
+    <t>VA0020100</t>
+  </si>
+  <si>
+    <t>WA0380500</t>
+  </si>
+  <si>
+    <t>WV0310600</t>
+  </si>
+  <si>
+    <t>in_nibrs</t>
+  </si>
+  <si>
+    <t>ori_9_lindo</t>
+  </si>
+  <si>
+    <t>ori_9_lindo2</t>
+  </si>
+  <si>
+    <t>AR0160100</t>
+  </si>
+  <si>
+    <t>IN0180100</t>
+  </si>
+  <si>
+    <t>SC0390200</t>
+  </si>
+  <si>
+    <t>ID0290500</t>
+  </si>
+  <si>
+    <t>IN0530100</t>
+  </si>
+  <si>
+    <t>LA0170200</t>
+  </si>
+  <si>
+    <t>WV0060200</t>
+  </si>
+  <si>
+    <t>OH0050100</t>
+  </si>
+  <si>
+    <t>OHCOP0000</t>
+  </si>
+  <si>
+    <t>TX1050100</t>
+  </si>
+  <si>
+    <t>IA0520200</t>
+  </si>
+  <si>
+    <t>KS0230100</t>
+  </si>
+  <si>
+    <t>MI8190300</t>
+  </si>
+  <si>
+    <t>MI8121800</t>
+  </si>
+  <si>
+    <t>MO0100200</t>
+  </si>
+  <si>
+    <t>PAPPD0000</t>
+  </si>
+  <si>
+    <t>WA0380300</t>
+  </si>
+  <si>
+    <t>WV0310100</t>
+  </si>
+  <si>
+    <t>KY0180100</t>
+  </si>
+  <si>
+    <t>VA1020000</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +757,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,6 +829,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="PT Serif"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -680,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +886,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1018,20 +1202,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,8 +1277,20 @@
       <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,8 +1326,20 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1163,8 +1372,20 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,8 +1434,14 @@
       <c r="T4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1471,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,8 +1524,20 @@
       <c r="T6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>164</v>
+      </c>
+      <c r="X6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1328,8 +1570,14 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,8 +1610,14 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1391,8 +1645,14 @@
       <c r="T9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1425,8 +1685,14 @@
       <c r="T10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1459,8 +1725,14 @@
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1765,14 @@
       <c r="T12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +1805,20 @@
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>171</v>
+      </c>
+      <c r="X13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1864,20 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>172</v>
+      </c>
+      <c r="X14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1608,8 +1910,20 @@
       <c r="T15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>173</v>
+      </c>
+      <c r="X15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1642,8 +1956,14 @@
       <c r="T16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1676,8 +1996,17 @@
       <c r="T17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1710,8 +2039,14 @@
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1744,8 +2079,14 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,8 +2119,20 @@
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1807,8 +2160,20 @@
       <c r="T21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1841,8 +2206,11 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1875,8 +2243,11 @@
       <c r="T23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1909,8 +2280,14 @@
       <c r="T24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1959,8 +2336,14 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1988,8 +2371,14 @@
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2022,8 +2411,20 @@
       <c r="T27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>183</v>
+      </c>
+      <c r="X27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2457,14 @@
       <c r="T28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2085,8 +2492,14 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2119,8 +2532,11 @@
       <c r="T30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2159,8 +2575,14 @@
       <c r="T31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2193,8 +2615,15 @@
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="22"/>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2227,8 +2656,20 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>187</v>
+      </c>
+      <c r="X33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2261,8 +2702,20 @@
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>188</v>
+      </c>
+      <c r="X34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2295,8 +2748,17 @@
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>212</v>
+      </c>
+      <c r="X35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2329,8 +2791,20 @@
       <c r="T36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>189</v>
+      </c>
+      <c r="X36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2363,8 +2837,14 @@
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2397,8 +2877,20 @@
       <c r="T38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>191</v>
+      </c>
+      <c r="X38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
@@ -2426,8 +2918,14 @@
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2455,8 +2953,14 @@
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2489,8 +2993,20 @@
       <c r="T41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>194</v>
+      </c>
+      <c r="X41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2533,8 +3049,20 @@
       <c r="T42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42" t="s">
+        <v>195</v>
+      </c>
+      <c r="X42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2586,8 +3114,20 @@
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
+        <v>196</v>
+      </c>
+      <c r="X43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -2595,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -2603,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -2611,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -2619,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>

--- a/Data/closure_spreadsheet_final_2019.xlsx
+++ b/Data/closure_spreadsheet_final_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924395AC-3D75-4A42-BCCB-471E3DE4831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56623D6E-799B-5A46-94D1-C31ED0E8F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="22400" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17800" windowHeight="21900" xr2:uid="{DB1CA4CE-1639-914A-A925-15443BDD0288}"/>
   </bookViews>
   <sheets>
     <sheet name="closure_spreadsheet_main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="222">
   <si>
     <t>University</t>
   </si>
@@ -748,6 +748,12 @@
   </si>
   <si>
     <t>VA1020000</t>
+  </si>
+  <si>
+    <t>res_data_sent</t>
+  </si>
+  <si>
+    <t>res_data_received</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494373-D1B0-2F4E-8589-31FBEC2D47DF}">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1222,7 @@
     <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1295,14 @@
       <c r="X1" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1350,11 @@
       <c r="X2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,8 +1399,11 @@
       <c r="X3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1440,8 +1458,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1474,8 +1495,11 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1536,8 +1560,11 @@
       <c r="X6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,8 +1603,11 @@
       <c r="V7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1616,8 +1646,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1651,8 +1684,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,8 +1727,11 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1731,8 +1770,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1771,8 +1813,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1817,8 +1862,11 @@
       <c r="X13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1924,11 @@
       <c r="X14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1922,8 +1973,11 @@
       <c r="X15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1962,8 +2016,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2005,8 +2062,11 @@
       <c r="X17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2045,8 +2105,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2085,8 +2148,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2131,8 +2197,11 @@
       <c r="X20" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -2172,8 +2241,11 @@
       <c r="X21" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2210,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2246,8 +2318,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2286,8 +2361,11 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2342,8 +2420,11 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2377,8 +2458,11 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2423,8 +2507,11 @@
       <c r="X27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2463,8 +2550,11 @@
       <c r="V28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2498,8 +2588,11 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2535,8 +2628,11 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2581,8 +2677,11 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2622,8 +2721,11 @@
       <c r="X32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2668,8 +2770,11 @@
       <c r="X33" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2714,8 +2819,11 @@
       <c r="X34" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2757,8 +2865,11 @@
       <c r="X35" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2803,8 +2914,11 @@
       <c r="X36" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2843,8 +2957,11 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2889,8 +3006,11 @@
       <c r="X38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
@@ -2924,8 +3044,11 @@
       <c r="V39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2959,8 +3082,11 @@
       <c r="V40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3005,8 +3131,11 @@
       <c r="X41" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -3061,8 +3190,11 @@
       <c r="X42" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -3126,8 +3258,11 @@
       <c r="X43" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3135,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3143,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -3151,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -3159,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>
